--- a/Data/nsds_status_all_info.xlsx
+++ b/Data/nsds_status_all_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/464195223dcae84f/Dokumente/OECD/R Analysis/NSDS_status_table/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_B89231273C09E28F64F633A9637E1A033A5B88D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_B89231273C09E28F64F633A9637E1A033A5B88D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF1F2E68-34CA-4566-8F3A-6816744BF8F8}"/>
   <bookViews>
-    <workbookView xWindow="-114" yWindow="-114" windowWidth="24480" windowHeight="13150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="528">
   <si>
     <t>Country</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Stratégie Nationale de Développement de la Statistique</t>
   </si>
   <si>
-    <t>2017-19</t>
-  </si>
-  <si>
     <t>Not yet planned</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Plano Estatistico Nacional de Medio Prazo</t>
   </si>
   <si>
-    <t>2015-25</t>
-  </si>
-  <si>
     <t>AGO</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>NSDS -3</t>
   </si>
   <si>
-    <t>2020-23</t>
-  </si>
-  <si>
     <t>BEN</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>Botswana Strategy for the Development of Statistics</t>
   </si>
   <si>
-    <t>2015 – 2020 (current one extended)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Planned </t>
   </si>
   <si>
@@ -238,18 +226,12 @@
     <t>Stratégie Nationale de développement de la statistique (SNDS2)</t>
   </si>
   <si>
-    <t>2022-226</t>
-  </si>
-  <si>
     <t>TCD</t>
   </si>
   <si>
     <t>Comoros</t>
   </si>
   <si>
-    <t>2015-19</t>
-  </si>
-  <si>
     <t>COM</t>
   </si>
   <si>
@@ -277,9 +259,6 @@
     <t>Stratégie nationale de développement de la statistique</t>
   </si>
   <si>
-    <t>2012/13-17</t>
-  </si>
-  <si>
     <t>COD</t>
   </si>
   <si>
@@ -298,9 +277,6 @@
     <t>Djibouti</t>
   </si>
   <si>
-    <t>2011-15</t>
-  </si>
-  <si>
     <t>Being designed</t>
   </si>
   <si>
@@ -319,9 +295,6 @@
     <t>National Strategy of Statistics</t>
   </si>
   <si>
-    <t>2017 - 21</t>
-  </si>
-  <si>
     <t>Being planned</t>
   </si>
   <si>
@@ -349,9 +322,6 @@
     <t>Master plan for development economics statistics</t>
   </si>
   <si>
-    <t>2010-14</t>
-  </si>
-  <si>
     <t>ERI</t>
   </si>
   <si>
@@ -469,9 +439,6 @@
     <t>Liberia</t>
   </si>
   <si>
-    <t>2018-22</t>
-  </si>
-  <si>
     <t>LBR</t>
   </si>
   <si>
@@ -499,9 +466,6 @@
     <t xml:space="preserve">Stratégie Nationale de Développement de la Statistique </t>
   </si>
   <si>
-    <t>2007-17</t>
-  </si>
-  <si>
     <t>MDG</t>
   </si>
   <si>
@@ -628,9 +592,6 @@
     <t>Estratégia Nacional para o Desenvolvimento da Estatística</t>
   </si>
   <si>
-    <t>2018-21</t>
-  </si>
-  <si>
     <t>STP</t>
   </si>
   <si>
@@ -805,9 +766,6 @@
     <t>Bangladesh</t>
   </si>
   <si>
-    <t>2013-23</t>
-  </si>
-  <si>
     <t>BGD</t>
   </si>
   <si>
@@ -862,9 +820,6 @@
     <t>Strategic Plan 2011-16</t>
   </si>
   <si>
-    <t>2011-16</t>
-  </si>
-  <si>
     <t>IND</t>
   </si>
   <si>
@@ -937,9 +892,6 @@
     <t>Strategy for the Development of the National Statistical System</t>
   </si>
   <si>
-    <t>2016-25/30</t>
-  </si>
-  <si>
     <t>LAO</t>
   </si>
   <si>
@@ -1045,9 +997,6 @@
     <t>Strategy for the Development of Statistics  Vol 1 Vol 2</t>
   </si>
   <si>
-    <t>2018-27</t>
-  </si>
-  <si>
     <t>PNG</t>
   </si>
   <si>
@@ -1060,9 +1009,6 @@
     <t>Philippine Statistical Development Programme</t>
   </si>
   <si>
-    <t>2018-23</t>
-  </si>
-  <si>
     <t>PHL</t>
   </si>
   <si>
@@ -1075,9 +1021,6 @@
     <t>Samoa Strategy for the Development of Statistics</t>
   </si>
   <si>
-    <t>2011-21</t>
-  </si>
-  <si>
     <t>WSM</t>
   </si>
   <si>
@@ -1087,9 +1030,6 @@
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>2016-35</t>
-  </si>
-  <si>
     <t>SLB</t>
   </si>
   <si>
@@ -1108,9 +1048,6 @@
     <t>Strategy 2006‐2010 for Statistical Capacity Building in Syria</t>
   </si>
   <si>
-    <t>2006-10</t>
-  </si>
-  <si>
     <t>SYR</t>
   </si>
   <si>
@@ -1123,9 +1060,6 @@
     <t>Multi-year integrated statistical program</t>
   </si>
   <si>
-    <t>2012-16</t>
-  </si>
-  <si>
     <t>TJK</t>
   </si>
   <si>
@@ -1138,9 +1072,6 @@
     <t>2nd Thailand Statistical Master Plan</t>
   </si>
   <si>
-    <t>2016 - 22</t>
-  </si>
-  <si>
     <t>THA</t>
   </si>
   <si>
@@ -1171,9 +1102,6 @@
     <t> Tonga Strategy for Development of Statistics</t>
   </si>
   <si>
-    <t>2019-23</t>
-  </si>
-  <si>
     <t>TON</t>
   </si>
   <si>
@@ -1186,9 +1114,6 @@
     <t>State Program of Transition of Statistics System to the International Standards</t>
   </si>
   <si>
-    <t>2010-12</t>
-  </si>
-  <si>
     <t>TKM</t>
   </si>
   <si>
@@ -1204,9 +1129,6 @@
     <t>National Strategy for the development of Statistics  </t>
   </si>
   <si>
-    <t>2020-25</t>
-  </si>
-  <si>
     <t>UZB</t>
   </si>
   <si>
@@ -1231,9 +1153,6 @@
     <t>Vietnam Statistical Development Strategy</t>
   </si>
   <si>
-    <t>2011-20</t>
-  </si>
-  <si>
     <t>VNM</t>
   </si>
   <si>
@@ -1387,9 +1306,6 @@
     <t>Plan Estratgégico Institucional PEI 2016 -2020</t>
   </si>
   <si>
-    <t>2016-20</t>
-  </si>
-  <si>
     <t>BOL</t>
   </si>
   <si>
@@ -1495,9 +1411,6 @@
     <t>Haiti</t>
   </si>
   <si>
-    <t>2016-21</t>
-  </si>
-  <si>
     <t>HTI</t>
   </si>
   <si>
@@ -1625,6 +1538,72 @@
   </si>
   <si>
     <t>VEN</t>
+  </si>
+  <si>
+    <t>2015-2019</t>
+  </si>
+  <si>
+    <t>2012/13-2017</t>
+  </si>
+  <si>
+    <t>2011-2015</t>
+  </si>
+  <si>
+    <t>2010-2014</t>
+  </si>
+  <si>
+    <t>2007-2017</t>
+  </si>
+  <si>
+    <t>2018-2021</t>
+  </si>
+  <si>
+    <t>2013-2023</t>
+  </si>
+  <si>
+    <t>2015-2025</t>
+  </si>
+  <si>
+    <t>2011-2016</t>
+  </si>
+  <si>
+    <t>2006-2010</t>
+  </si>
+  <si>
+    <t>2016-2021</t>
+  </si>
+  <si>
+    <t>2011-2020</t>
+  </si>
+  <si>
+    <t>2020-2025</t>
+  </si>
+  <si>
+    <t>2010-2012</t>
+  </si>
+  <si>
+    <t>2016 - 2022</t>
+  </si>
+  <si>
+    <t>2012-2016</t>
+  </si>
+  <si>
+    <t>2018-2027</t>
+  </si>
+  <si>
+    <t>2011-2021</t>
+  </si>
+  <si>
+    <t>2016-2035</t>
+  </si>
+  <si>
+    <t>2016-2025/30</t>
+  </si>
+  <si>
+    <t>2015-2020 (current one extended)</t>
+  </si>
+  <si>
+    <t>2017-2019</t>
   </si>
 </sst>
 </file>
@@ -1677,6 +1656,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1960,9 +1943,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2019,317 +2007,317 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
         <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
-        <v>55</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -2338,194 +2326,194 @@
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="F11" t="s">
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
         <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>506</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
         <v>51</v>
       </c>
-      <c r="E12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" t="s">
-        <v>55</v>
-      </c>
       <c r="L12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>507</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -2534,153 +2522,153 @@
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E15" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
         <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -2689,77 +2677,77 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>509</v>
       </c>
       <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
         <v>21</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>22</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K20" t="s">
         <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -2768,964 +2756,964 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M22" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
         <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M23" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M24" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M25" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M26" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
         <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E28" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="L29" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M29" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>510</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F31" t="s">
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
         <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M31" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
         <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M32" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B33" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L33" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="M33" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K34" t="s">
         <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M34" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="E36" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K36" t="s">
         <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M36" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D37" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E37" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L37" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K38" t="s">
         <v>15</v>
       </c>
       <c r="L38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E39" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="F40" t="s">
         <v>15</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K40" t="s">
         <v>15</v>
       </c>
       <c r="L40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M40" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>202</v>
+        <v>511</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L41" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M41" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H42" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K42" t="s">
         <v>15</v>
       </c>
       <c r="L42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M42" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="E43" t="s">
         <v>15</v>
       </c>
       <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
         <v>18</v>
       </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
       <c r="H43" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L43" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M44" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -3737,618 +3725,618 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L45" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F46" t="s">
         <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K46" t="s">
         <v>15</v>
       </c>
       <c r="L46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L47" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E48" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K48" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D49" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F49" t="s">
         <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H49" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K49" t="s">
         <v>15</v>
       </c>
       <c r="L49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="E50" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K50" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L50" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F51" t="s">
         <v>15</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H51" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K51" t="s">
         <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D52" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F52" t="s">
         <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K52" t="s">
         <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E53" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="F53" t="s">
         <v>15</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K53" t="s">
         <v>15</v>
       </c>
       <c r="L53" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D54" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E54" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F54" t="s">
         <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K54" t="s">
         <v>15</v>
       </c>
       <c r="L54" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H55" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K55" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L55" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M55" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="E56" t="s">
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H56" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M56" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>512</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M57" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D58" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
       </c>
       <c r="G58" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K58" t="s">
         <v>15</v>
       </c>
       <c r="L58" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M58" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G59" t="s">
+        <v>244</v>
+      </c>
+      <c r="H59" t="s">
         <v>257</v>
       </c>
-      <c r="H59" t="s">
-        <v>271</v>
-      </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L59" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>513</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H60" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M60" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B61" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -4360,194 +4348,194 @@
         <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G61" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H61" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K61" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L61" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>514</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H62" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L62" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M62" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="E63" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H63" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M63" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>509</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H64" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" t="s">
         <v>21</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>22</v>
-      </c>
-      <c r="L64" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H65" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M65" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
         <v>15</v>
@@ -4559,33 +4547,33 @@
         <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H66" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K66" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L66" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -4597,156 +4585,156 @@
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H67" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B68" t="s">
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D68" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E68" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H68" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
+        <v>20</v>
+      </c>
+      <c r="K68" t="s">
         <v>21</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>22</v>
       </c>
-      <c r="L68" t="s">
-        <v>23</v>
-      </c>
       <c r="M68" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D69" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E69" t="s">
-        <v>305</v>
+        <v>525</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L69" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M69" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D70" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E70" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H70" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M70" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -4758,33 +4746,33 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H71" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K71" t="s">
+        <v>21</v>
+      </c>
+      <c r="L71" t="s">
         <v>22</v>
-      </c>
-      <c r="L71" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
@@ -4796,112 +4784,112 @@
         <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G72" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H72" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K72" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L72" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D73" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H73" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L73" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D74" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E74" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H74" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M74" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
@@ -4913,115 +4901,115 @@
         <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G75" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H75" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K75" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L75" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E76" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H76" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L76" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M76" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E77" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L77" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M77" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -5033,235 +5021,235 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H78" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K78" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78" t="s">
         <v>22</v>
-      </c>
-      <c r="L78" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E79" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H79" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L79" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M79" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E80" t="s">
-        <v>341</v>
+        <v>522</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H80" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="D81" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="E81" t="s">
-        <v>346</v>
+        <v>141</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H81" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K81" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M81" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D82" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="E82" t="s">
-        <v>351</v>
+        <v>523</v>
       </c>
       <c r="F82" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H82" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K82" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M82" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D83" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E83" t="s">
-        <v>355</v>
+        <v>524</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G83" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H83" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L83" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M83" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="B84" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -5273,197 +5261,197 @@
         <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G84" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H84" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K84" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L84" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D85" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="E85" t="s">
-        <v>362</v>
+        <v>515</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H85" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" t="s">
         <v>21</v>
       </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>22</v>
       </c>
-      <c r="L85" t="s">
-        <v>23</v>
-      </c>
       <c r="M85" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
         <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D86" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="E86" t="s">
-        <v>367</v>
+        <v>521</v>
       </c>
       <c r="F86" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G86" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H86" t="s">
-        <v>368</v>
+        <v>346</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L86" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M86" t="s">
-        <v>369</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C87" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D87" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="E87" t="s">
-        <v>372</v>
+        <v>520</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H87" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K87" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M87" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D88" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
       <c r="E88" t="s">
         <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H88" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M88" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B89" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
@@ -5475,71 +5463,71 @@
         <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H89" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K89" t="s">
+        <v>21</v>
+      </c>
+      <c r="L89" t="s">
         <v>22</v>
-      </c>
-      <c r="L89" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D90" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="E90" t="s">
-        <v>383</v>
+        <v>152</v>
       </c>
       <c r="F90" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G90" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H90" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K90" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M90" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
@@ -5548,39 +5536,39 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="E91" t="s">
-        <v>388</v>
+        <v>519</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G91" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H91" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91" t="s">
+        <v>20</v>
+      </c>
+      <c r="K91" t="s">
         <v>21</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>22</v>
-      </c>
-      <c r="L91" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>390</v>
+        <v>365</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
@@ -5592,440 +5580,440 @@
         <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G92" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H92" t="s">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K92" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="E93" t="s">
-        <v>394</v>
+        <v>518</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G93" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H93" t="s">
-        <v>395</v>
+        <v>369</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M93" t="s">
-        <v>396</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="B94" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
-        <v>398</v>
+        <v>372</v>
       </c>
       <c r="E94" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="F94" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="G94" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H94" t="s">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K94" t="s">
-        <v>399</v>
+        <v>373</v>
       </c>
       <c r="L94" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>401</v>
+        <v>375</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
-        <v>402</v>
+        <v>376</v>
       </c>
       <c r="E95" t="s">
-        <v>403</v>
+        <v>517</v>
       </c>
       <c r="F95" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G95" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H95" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K95" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M95" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
       </c>
       <c r="C96" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D96" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="E96" t="s">
-        <v>362</v>
+        <v>515</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G96" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H96" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
+        <v>20</v>
+      </c>
+      <c r="K96" t="s">
         <v>21</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>22</v>
       </c>
-      <c r="L96" t="s">
-        <v>23</v>
-      </c>
       <c r="M96" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="E97" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="F97" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G97" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="H97" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K97" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M97" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D98" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="E98" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G98" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="H98" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M98" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D99" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="F99" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G99" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="H99" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K99" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L99" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M99" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D100" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="E100" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="H100" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M100" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="B101" t="s">
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D101" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="E101" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G101" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="H101" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101" t="s">
+        <v>20</v>
+      </c>
+      <c r="K101" t="s">
         <v>21</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>22</v>
       </c>
-      <c r="L101" t="s">
-        <v>23</v>
-      </c>
       <c r="M101" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D102" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="E102" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="H102" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M102" t="s">
-        <v>436</v>
+        <v>409</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>437</v>
+        <v>410</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
         <v>15</v>
@@ -6037,71 +6025,71 @@
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G103" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H103" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K103" t="s">
+        <v>21</v>
+      </c>
+      <c r="L103" t="s">
         <v>22</v>
-      </c>
-      <c r="L103" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D104" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="E104" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="F104" t="s">
         <v>15</v>
       </c>
       <c r="G104" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H104" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K104" t="s">
         <v>15</v>
       </c>
       <c r="L104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
@@ -6113,33 +6101,33 @@
         <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G105" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H105" t="s">
-        <v>445</v>
+        <v>418</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K105" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" t="s">
         <v>22</v>
-      </c>
-      <c r="L105" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>446</v>
+        <v>419</v>
       </c>
       <c r="B106" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C106" t="s">
         <v>15</v>
@@ -6151,33 +6139,33 @@
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G106" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H106" t="s">
-        <v>447</v>
+        <v>420</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K106" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L106" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="B107" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C107" t="s">
         <v>15</v>
@@ -6192,264 +6180,264 @@
         <v>15</v>
       </c>
       <c r="G107" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H107" t="s">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K107" t="s">
         <v>15</v>
       </c>
       <c r="L107" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C108" t="s">
         <v>15</v>
       </c>
       <c r="D108" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E108" t="s">
         <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G108" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H108" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K108" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L108" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M108" t="s">
-        <v>452</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="B109" t="s">
         <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D109" t="s">
-        <v>454</v>
+        <v>427</v>
       </c>
       <c r="E109" t="s">
-        <v>455</v>
+        <v>48</v>
       </c>
       <c r="F109" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G109" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H109" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K109" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L109" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="M109" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C110" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D110" t="s">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="E110" t="s">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="F110" t="s">
         <v>15</v>
       </c>
       <c r="G110" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H110" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K110" t="s">
         <v>15</v>
       </c>
       <c r="L110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C111" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D111" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="E111" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F111" t="s">
         <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H111" t="s">
-        <v>464</v>
+        <v>436</v>
       </c>
       <c r="I111">
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K111" t="s">
         <v>15</v>
       </c>
       <c r="L111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C112" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D112" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="E112" t="s">
-        <v>467</v>
+        <v>439</v>
       </c>
       <c r="F112" t="s">
         <v>15</v>
       </c>
       <c r="G112" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H112" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K112" t="s">
         <v>15</v>
       </c>
       <c r="L112" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>469</v>
+        <v>441</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D113" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="E113" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F113" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G113" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H113" t="s">
-        <v>471</v>
+        <v>443</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K113" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L113" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="B114" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
         <v>15</v>
@@ -6464,30 +6452,30 @@
         <v>15</v>
       </c>
       <c r="G114" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H114" t="s">
-        <v>473</v>
+        <v>445</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K114" t="s">
         <v>15</v>
       </c>
       <c r="L114" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>474</v>
+        <v>446</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C115" t="s">
         <v>15</v>
@@ -6499,71 +6487,71 @@
         <v>15</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G115" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H115" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K115" t="s">
+        <v>21</v>
+      </c>
+      <c r="L115" t="s">
         <v>22</v>
-      </c>
-      <c r="L115" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="B116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D116" t="s">
-        <v>463</v>
+        <v>435</v>
       </c>
       <c r="E116" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H116" t="s">
-        <v>477</v>
+        <v>449</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K116" t="s">
         <v>15</v>
       </c>
       <c r="L116" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="B117" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C117" t="s">
         <v>15</v>
@@ -6575,33 +6563,33 @@
         <v>15</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G117" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H117" t="s">
-        <v>479</v>
+        <v>451</v>
       </c>
       <c r="I117">
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K117" t="s">
+        <v>21</v>
+      </c>
+      <c r="L117" t="s">
         <v>22</v>
-      </c>
-      <c r="L117" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>480</v>
+        <v>452</v>
       </c>
       <c r="B118" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C118" t="s">
         <v>15</v>
@@ -6613,33 +6601,33 @@
         <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G118" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H118" t="s">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K118" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L118" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="B119" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C119" t="s">
         <v>15</v>
@@ -6651,74 +6639,74 @@
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G119" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H119" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K119" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L119" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C120" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D120" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="E120" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F120" t="s">
         <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H120" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="I120">
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K120" t="s">
         <v>15</v>
       </c>
       <c r="L120" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M120" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>488</v>
+        <v>460</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C121" t="s">
         <v>15</v>
@@ -6730,109 +6718,109 @@
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G121" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H121" t="s">
-        <v>489</v>
+        <v>461</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K121" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="B122" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D122" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E122" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G122" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H122" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K122" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L122" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
       </c>
       <c r="C123" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D123" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="E123" t="s">
-        <v>92</v>
+        <v>508</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G123" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H123" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
+        <v>20</v>
+      </c>
+      <c r="K123" t="s">
         <v>21</v>
       </c>
-      <c r="K123" t="s">
+      <c r="L123" t="s">
         <v>22</v>
-      </c>
-      <c r="L123" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="C124" t="s">
         <v>15</v>
@@ -6844,109 +6832,109 @@
         <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G124" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H124" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="I124">
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L124" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="B125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C125" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D125" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="E125" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="F125" t="s">
         <v>15</v>
       </c>
       <c r="G125" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H125" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="I125">
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K125" t="s">
         <v>15</v>
       </c>
       <c r="L125" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="B126" t="s">
         <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D126" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="E126" t="s">
-        <v>362</v>
+        <v>515</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G126" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H126" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" t="s">
+        <v>20</v>
+      </c>
+      <c r="K126" t="s">
         <v>21</v>
       </c>
-      <c r="K126" t="s">
+      <c r="L126" t="s">
         <v>22</v>
-      </c>
-      <c r="L126" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C127" t="s">
         <v>15</v>
@@ -6961,147 +6949,147 @@
         <v>15</v>
       </c>
       <c r="G127" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H127" t="s">
-        <v>507</v>
+        <v>478</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K127" t="s">
         <v>15</v>
       </c>
       <c r="L127" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>508</v>
+        <v>479</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D128" t="s">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="E128" t="s">
-        <v>510</v>
+        <v>481</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H128" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K128" t="s">
         <v>15</v>
       </c>
       <c r="L128" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M128" t="s">
-        <v>512</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D129" t="s">
-        <v>514</v>
+        <v>485</v>
       </c>
       <c r="E129" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="F129" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G129" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H129" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
       <c r="I129">
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K129" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L129" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>516</v>
+        <v>487</v>
       </c>
       <c r="B130" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D130" t="s">
-        <v>441</v>
+        <v>414</v>
       </c>
       <c r="E130" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H130" t="s">
-        <v>517</v>
+        <v>488</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K130" t="s">
         <v>15</v>
       </c>
       <c r="L130" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>518</v>
+        <v>489</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
         <v>15</v>
@@ -7116,30 +7104,30 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H131" t="s">
-        <v>519</v>
+        <v>490</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K131" t="s">
         <v>15</v>
       </c>
       <c r="L131" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>520</v>
+        <v>491</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
         <v>15</v>
@@ -7151,33 +7139,33 @@
         <v>15</v>
       </c>
       <c r="F132" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G132" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H132" t="s">
-        <v>521</v>
+        <v>492</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K132" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L132" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="B133" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
         <v>15</v>
@@ -7189,33 +7177,33 @@
         <v>15</v>
       </c>
       <c r="F133" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G133" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H133" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K133" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="L133" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>524</v>
+        <v>495</v>
       </c>
       <c r="B134" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
         <v>15</v>
@@ -7227,33 +7215,33 @@
         <v>15</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G134" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H134" t="s">
-        <v>525</v>
+        <v>496</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L134" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>526</v>
+        <v>497</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
         <v>15</v>
@@ -7265,101 +7253,101 @@
         <v>15</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G135" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H135" t="s">
-        <v>527</v>
+        <v>498</v>
       </c>
       <c r="I135">
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K135" t="s">
+        <v>21</v>
+      </c>
+      <c r="L135" t="s">
         <v>22</v>
-      </c>
-      <c r="L135" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="B136" t="s">
         <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D136" t="s">
-        <v>529</v>
+        <v>500</v>
       </c>
       <c r="E136" t="s">
-        <v>530</v>
+        <v>501</v>
       </c>
       <c r="F136" t="s">
         <v>15</v>
       </c>
       <c r="G136" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H136" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K136" t="s">
         <v>15</v>
       </c>
       <c r="L136" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="B137" t="s">
         <v>14</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D137" t="s">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="E137" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="F137" t="s">
         <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>438</v>
+        <v>411</v>
       </c>
       <c r="H137" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="I137">
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K137" t="s">
         <v>15</v>
       </c>
       <c r="L137" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
